--- a/mbs-perturbation/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
+++ b/mbs-perturbation/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.9352226720647774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9274193548387097</v>
+        <v>0.9665271966527197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9485673057101628</v>
+        <v>0.9525964655834787</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.9625</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.980891719745223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9665271966527197</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9935483870967742</v>
+        <v>0.9829787234042554</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956521739130434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6990881458966566</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8228980322003577</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7571616789008093</v>
+        <v>0.9932053453792584</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8713665389858279</v>
+        <v>0.9612158801741737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991341991341992</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.927385522851301</v>
+        <v>0.9801327132322104</v>
       </c>
       <c r="E7" t="n">
-        <v>0.940276231704803</v>
+        <v>0.9891603621925474</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
+++ b/mbs-perturbation/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9352226720647774</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9665271966527197</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9525964655834787</v>
+        <v>0.8623566937869822</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.8755760368663594</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8848234097633136</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9625</v>
+        <v>0.8923766816143498</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9567307692307693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.980891719745223</v>
+        <v>0.9234338747099767</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9748636279585798</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9665271966527197</v>
+        <v>0.6340694006309149</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9663461538461539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9829787234042554</v>
+        <v>0.7657142857142858</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7673354289940828</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.5686813186813187</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.7237762237762237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9932053453792584</v>
+        <v>0.6004761464497042</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9612158801741737</v>
+        <v>0.7473664940102015</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9490384615384615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9801327132322104</v>
+        <v>0.8280750729185286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9891603621925474</v>
+        <v>0.8179710613905327</v>
       </c>
     </row>
   </sheetData>
